--- a/DCISM_WBRMSystem/file/temp_inventory/LB 400 (100 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 400 (100 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 400</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Mouse</t>
@@ -29320,7 +29320,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BWX77LwGzy99mPoLZVX4d9eq+AIDe3in2eL+PmiHSYRgenGwIV9G9ih36oHPzZuUikS5f5TDSTMqYaMb+zFFqA==" saltValue="VYo0A10DOxNkaN8GrZ+6RA==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OjOarXIck+/coqWiPKebIxzipZvJN/RiavWY4dqtb2Z8bgwYBHJNwBPWdwfx+OPdB94w88FkDUa8PyXvxz0bHQ==" saltValue="9PF7BI8Nn2NEjfnIdo7+mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
